--- a/examples/optimization/scipy/ti_8_farm_results.xlsx
+++ b/examples/optimization/scipy/ti_8_farm_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\floris\examples\optimization\scipy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497072F5-9D9F-407C-AEF4-B9899D9C5472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD066F5B-F0B6-4779-B543-6536A34F32E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DEBB126-35A0-420C-A7F1-AA77EF95A46D}"/>
   </bookViews>
@@ -22460,8 +22460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA561753-B292-4805-A983-FE6789439231}">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
